--- a/biology/Zoologie/Acanthophrynus_coronatus/Acanthophrynus_coronatus.xlsx
+++ b/biology/Zoologie/Acanthophrynus_coronatus/Acanthophrynus_coronatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthophrynus coronatus, unique représentant du genre Acanthophrynus, est une espèce d'amblypyges de la famille des Phrynidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Mexique en Oaxaca, au Guerrero, au Michoacán, au Colima, au Jalisco, au Guanajuato, au Nayarit, au Sinaloa, au Durango, en Basse-Californie du Sud et au Sonora et aux États-Unis en Californie et en Arizona[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Mexique en Oaxaca, au Guerrero, au Michoacán, au Colima, au Jalisco, au Guanajuato, au Nayarit, au Sinaloa, au Durango, en Basse-Californie du Sud et au Sonora et aux États-Unis en Californie et en Arizona,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est la plus grande des amblypyges, avec 45 mm de longueur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est la plus grande des amblypyges, avec 45 mm de longueur.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Butler, 1873 : A monographic revision of the genus Phrynus. Annals and Magazine of Natural History, sér. 4, vol. 12, p. 117-125 (texte intégral).
 Kraepelin, 1899 : Scorpiones und Pedipalpi. Das Tierreich. Herausgegeben von der Deutschen zoologischen Gesellschaft, Berlin, p. 1-265.</t>
